--- a/EDA_Entrega/data/correlation_age_cholesterol.xlsx
+++ b/EDA_Entrega/data/correlation_age_cholesterol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>P_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Regression_Coeff</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Intercept</t>
         </is>
@@ -482,12 +487,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.6596270733817461</v>
+        <v>-0.6596270733817052</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>-19475869.95791453</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>1646264202.668719</v>
       </c>
     </row>
@@ -508,12 +516,15 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.6596270679575248</v>
+        <v>-0.6596270679574954</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>-19475.86999298281</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1646264.188243613</v>
       </c>
     </row>
@@ -534,12 +545,15 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.06462169528600015</v>
+        <v>-0.0646216952860037</v>
       </c>
       <c r="E4" t="n">
+        <v>7.804336951941337e-33</v>
+      </c>
+      <c r="F4" t="n">
         <v>-0.4889092795886377</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>223.5449460274138</v>
       </c>
     </row>
@@ -560,12 +574,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.002265183659833783</v>
+        <v>0.002265183659834183</v>
       </c>
       <c r="E5" t="n">
+        <v>0.7001595988452485</v>
+      </c>
+      <c r="F5" t="n">
         <v>1.474305085655541e-05</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.05096054011879813</v>
       </c>
     </row>
@@ -586,12 +603,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.03970342872507682</v>
+        <v>0.03970342872507339</v>
       </c>
       <c r="E6" t="n">
+        <v>1.451648729628457e-11</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.0007595541910705567</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.1638816516559205</v>
       </c>
     </row>
@@ -612,12 +632,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.1114796587237629</v>
+        <v>-0.1114796587237525</v>
       </c>
       <c r="E7" t="n">
+        <v>3.790027400960534e-83</v>
+      </c>
+      <c r="F7" t="n">
         <v>-0.00395625974893343</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>4.214807221629033</v>
       </c>
     </row>
@@ -638,12 +661,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.04010183756633887</v>
+        <v>-0.04010183756633911</v>
       </c>
       <c r="E8" t="n">
+        <v>4.348129052062117e-12</v>
+      </c>
+      <c r="F8" t="n">
         <v>-0.1462275449937178</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>92.50829531348455</v>
       </c>
     </row>
@@ -664,12 +690,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.2085684781265089</v>
+        <v>-0.2085684781265431</v>
       </c>
       <c r="E9" t="n">
+        <v>9.151483607252683e-290</v>
+      </c>
+      <c r="F9" t="n">
         <v>-0.2976510841093185</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>41.73023871914251</v>
       </c>
     </row>
@@ -690,12 +719,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.01044181268828676</v>
+        <v>-0.0104418126882861</v>
       </c>
       <c r="E10" t="n">
+        <v>0.07585430090765108</v>
+      </c>
+      <c r="F10" t="n">
         <v>-0.003098787734864367</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>2.31918528777687</v>
       </c>
     </row>
@@ -716,12 +748,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.07044651545519851</v>
+        <v>0.07044651545519164</v>
       </c>
       <c r="E11" t="n">
+        <v>3.935579588645226e-33</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.001696836287171122</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.4491989825523698</v>
       </c>
     </row>
@@ -742,12 +777,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-0.002451252093072202</v>
+        <v>-0.002451252093072154</v>
       </c>
       <c r="E12" t="n">
+        <v>0.6768695335426891</v>
+      </c>
+      <c r="F12" t="n">
         <v>-0.000407118522929767</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>3.986238198048992</v>
       </c>
     </row>
@@ -768,12 +806,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.06569780354007963</v>
+        <v>-0.06569780354007948</v>
       </c>
       <c r="E13" t="n">
+        <v>1.274113888228509e-29</v>
+      </c>
+      <c r="F13" t="n">
         <v>-0.08635019913580189</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>28.36675743947264</v>
       </c>
     </row>
@@ -794,12 +835,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.005814272131818046</v>
+        <v>0.005814272131818139</v>
       </c>
       <c r="E14" t="n">
+        <v>0.3229105425131305</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.0003968282164177313</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.8262625529495418</v>
       </c>
     </row>
@@ -820,12 +864,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.1030426185675521</v>
+        <v>0.1030426185675466</v>
       </c>
       <c r="E15" t="n">
+        <v>5.051887754893811e-71</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.002939075319133795</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.2577413973962058</v>
       </c>
     </row>
@@ -846,12 +893,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.2337828671007167</v>
+        <v>0.2337828671007027</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.1834715505905748</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>5.349235736990444</v>
       </c>
     </row>
@@ -872,12 +922,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.01242525583355935</v>
+        <v>0.01242525583355722</v>
       </c>
       <c r="E17" t="n">
+        <v>0.03195024787569149</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.0005289444875347272</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>9.273207195972869</v>
       </c>
     </row>
@@ -898,12 +951,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.1158442557139599</v>
+        <v>-0.1158442557139606</v>
       </c>
       <c r="E18" t="n">
+        <v>1.180268035271177e-89</v>
+      </c>
+      <c r="F18" t="n">
         <v>-0.5457555375990367</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>226.2774901644677</v>
       </c>
     </row>
@@ -924,12 +980,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.01212010963122991</v>
+        <v>-0.01212010963122772</v>
       </c>
       <c r="E19" t="n">
+        <v>0.03627881947639217</v>
+      </c>
+      <c r="F19" t="n">
         <v>-0.004044709995541437</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>100.9893678716918</v>
       </c>
     </row>
@@ -950,12 +1009,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.03868268664702525</v>
+        <v>-0.03868268664702444</v>
       </c>
       <c r="E20" t="n">
+        <v>2.363990074612134e-11</v>
+      </c>
+      <c r="F20" t="n">
         <v>-1.647431383496787</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>452.3282551254169</v>
       </c>
     </row>
@@ -976,12 +1038,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.06914807596612242</v>
+        <v>0.06914807596611622</v>
       </c>
       <c r="E21" t="n">
+        <v>6.523015194305109e-33</v>
+      </c>
+      <c r="F21" t="n">
         <v>0.01930198773096559</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>22.69298859921268</v>
       </c>
     </row>
@@ -1002,12 +1067,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.07165187259182378</v>
+        <v>0.07165187259182518</v>
       </c>
       <c r="E22" t="n">
+        <v>2.716513615753584e-35</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.004862987623576146</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>0.6445831685567111</v>
       </c>
     </row>
@@ -1028,12 +1096,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.0005573555219859186</v>
+        <v>0.0005573555219858496</v>
       </c>
       <c r="E23" t="n">
+        <v>0.923322664004152</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.0006561585835804889</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>4.818411778416407</v>
       </c>
     </row>
@@ -1054,12 +1125,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.2059538790243388</v>
+        <v>0.205953879024327</v>
       </c>
       <c r="E24" t="n">
+        <v>3.047166891057559e-283</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.01288444319496402</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>0.2910779227339235</v>
       </c>
     </row>
@@ -1080,12 +1154,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.2465850491766892</v>
+        <v>-0.2465850491766839</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>-0.05622971655727845</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>6.290856447337532</v>
       </c>
     </row>
@@ -1106,12 +1183,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.06239057449448571</v>
+        <v>0.06239057449448591</v>
       </c>
       <c r="E26" t="n">
+        <v>2.473972648631354e-26</v>
+      </c>
+      <c r="F26" t="n">
         <v>0.01488969101584669</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>2.152063610722923</v>
       </c>
     </row>
@@ -1132,12 +1212,15 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-0.02282782752141196</v>
+        <v>-0.02282782752141198</v>
       </c>
       <c r="E27" t="n">
+        <v>8.157696978244568e-05</v>
+      </c>
+      <c r="F27" t="n">
         <v>-0.4353636757903088</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>181.7798319961149</v>
       </c>
     </row>
@@ -1158,12 +1241,15 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-0.02835288176623147</v>
+        <v>-0.02835288176623164</v>
       </c>
       <c r="E28" t="n">
+        <v>1.002555733009961e-06</v>
+      </c>
+      <c r="F28" t="n">
         <v>-0.1536535219390452</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>125.6779387995494</v>
       </c>
     </row>
@@ -1184,12 +1270,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-0.1197953049531215</v>
+        <v>-0.1197953049531188</v>
       </c>
       <c r="E29" t="n">
+        <v>1.08739128108642e-93</v>
+      </c>
+      <c r="F29" t="n">
         <v>-0.05639175791684187</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>45.51225377959555</v>
       </c>
     </row>
@@ -1210,12 +1299,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.05871816887648355</v>
+        <v>0.05871816887648069</v>
       </c>
       <c r="E30" t="n">
+        <v>3.241668941999839e-24</v>
+      </c>
+      <c r="F30" t="n">
         <v>0.1203887421185888</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>46.55007525889685</v>
       </c>
     </row>
@@ -1236,12 +1328,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-0.1396854185400265</v>
+        <v>-0.139685418540021</v>
       </c>
       <c r="E31" t="n">
+        <v>5.220773762900241e-127</v>
+      </c>
+      <c r="F31" t="n">
         <v>-0.02269281453642948</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>15.15556696425884</v>
       </c>
     </row>
@@ -1262,12 +1357,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.06186300552074615</v>
+        <v>0.06186300552074838</v>
       </c>
       <c r="E32" t="n">
+        <v>1.332553609451337e-26</v>
+      </c>
+      <c r="F32" t="n">
         <v>0.002938331081555322</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>3.995290672911757</v>
       </c>
     </row>
@@ -1288,12 +1386,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-0.1268801637511755</v>
+        <v>-0.1268801637511711</v>
       </c>
       <c r="E33" t="n">
+        <v>4.851299167233173e-104</v>
+      </c>
+      <c r="F33" t="n">
         <v>-0.5214284434144379</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>138.7199040460376</v>
       </c>
     </row>
@@ -1314,12 +1415,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-0.1205535154340523</v>
+        <v>-0.1205535154340515</v>
       </c>
       <c r="E34" t="n">
+        <v>5.055131880918851e-94</v>
+      </c>
+      <c r="F34" t="n">
         <v>-0.1211877224130183</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>38.69054647697848</v>
       </c>
     </row>
@@ -1340,12 +1444,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.1001997878444016</v>
+        <v>0.1001997878444055</v>
       </c>
       <c r="E35" t="n">
+        <v>1.054794259797717e-65</v>
+      </c>
+      <c r="F35" t="n">
         <v>0.02357956157019227</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>28.69795561880123</v>
       </c>
     </row>
@@ -1366,12 +1473,15 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-0.06764810377991373</v>
+        <v>-0.06764810377990919</v>
       </c>
       <c r="E36" t="n">
+        <v>1.215081297777099e-30</v>
+      </c>
+      <c r="F36" t="n">
         <v>-0.009236913598047266</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>33.33173660704109</v>
       </c>
     </row>
@@ -1392,12 +1502,15 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.1557674708987018</v>
+        <v>0.1557674708987035</v>
       </c>
       <c r="E37" t="n">
+        <v>7.985539299203782e-158</v>
+      </c>
+      <c r="F37" t="n">
         <v>0.1139566380051858</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>85.03603170275294</v>
       </c>
     </row>
@@ -1418,12 +1531,15 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.1275018063036959</v>
+        <v>0.1275018063036929</v>
       </c>
       <c r="E38" t="n">
+        <v>4.926767424021688e-105</v>
+      </c>
+      <c r="F38" t="n">
         <v>0.03161554568808907</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>6.171159252137839</v>
       </c>
     </row>
@@ -1444,12 +1560,15 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-0.02051439381798986</v>
+        <v>-0.02051439381798913</v>
       </c>
       <c r="E39" t="n">
+        <v>0.0005001874843400039</v>
+      </c>
+      <c r="F39" t="n">
         <v>-0.002209821703621873</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>11.40117036485348</v>
       </c>
     </row>
@@ -1470,12 +1589,15 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.00463693789340738</v>
+        <v>0.004636937893407725</v>
       </c>
       <c r="E40" t="n">
+        <v>0.4231194498416572</v>
+      </c>
+      <c r="F40" t="n">
         <v>0.001409473682313493</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>139.3346934983876</v>
       </c>
     </row>
@@ -1496,12 +1618,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.07179295665724733</v>
+        <v>0.07179295665724561</v>
       </c>
       <c r="E41" t="n">
+        <v>2.391891095200305e-34</v>
+      </c>
+      <c r="F41" t="n">
         <v>0.07642037100106445</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>52.02793395342375</v>
       </c>
     </row>
@@ -1522,12 +1647,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.07165055200799132</v>
+        <v>0.07165055200799367</v>
       </c>
       <c r="E42" t="n">
+        <v>3.576574997638978e-34</v>
+      </c>
+      <c r="F42" t="n">
         <v>12.75562418735957</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>-537.1740896809074</v>
       </c>
     </row>
@@ -1548,12 +1676,15 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-0.005319257299332274</v>
+        <v>-0.005319257299332259</v>
       </c>
       <c r="E43" t="n">
+        <v>0.3669147763879352</v>
+      </c>
+      <c r="F43" t="n">
         <v>-0.001349512302315917</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>14.03394112153685</v>
       </c>
     </row>
@@ -1574,12 +1705,15 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-0.100705622072964</v>
+        <v>-0.1007056220729647</v>
       </c>
       <c r="E44" t="n">
+        <v>1.677598896326742e-66</v>
+      </c>
+      <c r="F44" t="n">
         <v>-0.718774740877699</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>280.2966833604596</v>
       </c>
     </row>
@@ -1600,12 +1734,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-0.2078858348608033</v>
+        <v>-0.2078858348607999</v>
       </c>
       <c r="E45" t="n">
+        <v>3.450344618475164e-282</v>
+      </c>
+      <c r="F45" t="n">
         <v>-0.0114536165498847</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>5.289895499727476</v>
       </c>
     </row>
@@ -1626,12 +1763,15 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.04626792084215063</v>
+        <v>0.04626792084215187</v>
       </c>
       <c r="E46" t="n">
+        <v>2.655810468133553e-15</v>
+      </c>
+      <c r="F46" t="n">
         <v>0.007457415777416133</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>13.56431919208008</v>
       </c>
     </row>
@@ -1652,12 +1792,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-0.07764622321322562</v>
+        <v>-0.07764622321322706</v>
       </c>
       <c r="E47" t="n">
+        <v>3.946358934562898e-41</v>
+      </c>
+      <c r="F47" t="n">
         <v>-0.9283275571897325</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>224.3302443334702</v>
       </c>
     </row>
@@ -1678,12 +1821,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-0.1653896918275791</v>
+        <v>-0.1653896918275662</v>
       </c>
       <c r="E48" t="n">
+        <v>5.257865610429586e-182</v>
+      </c>
+      <c r="F48" t="n">
         <v>-0.007941518225277111</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>7.438986454514887</v>
       </c>
     </row>
@@ -1704,12 +1850,15 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-0.003165555466507941</v>
+        <v>-0.00316555546650813</v>
       </c>
       <c r="E49" t="n">
+        <v>0.5904346365005164</v>
+      </c>
+      <c r="F49" t="n">
         <v>-0.001134492064377283</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>6.967694246076259</v>
       </c>
     </row>
@@ -1730,12 +1879,15 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-0.002283341087538838</v>
+        <v>-0.002283341087538833</v>
       </c>
       <c r="E50" t="n">
+        <v>0.6948658927558811</v>
+      </c>
+      <c r="F50" t="n">
         <v>-0.001637938644569916</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>2.287262057482752</v>
       </c>
     </row>
@@ -1756,12 +1908,15 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.1633042016232108</v>
+        <v>0.1633042016232037</v>
       </c>
       <c r="E51" t="n">
+        <v>1.679357824143321e-175</v>
+      </c>
+      <c r="F51" t="n">
         <v>0.2287509510393244</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>13.98104155537938</v>
       </c>
     </row>
@@ -1782,12 +1937,15 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-0.1858649220179201</v>
+        <v>-0.1858649220179111</v>
       </c>
       <c r="E52" t="n">
+        <v>3.984908714621284e-229</v>
+      </c>
+      <c r="F52" t="n">
         <v>-286.3182186023753</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>68171.03180230271</v>
       </c>
     </row>
@@ -1808,12 +1966,15 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.03428070777396804</v>
+        <v>0.0342807077739678</v>
       </c>
       <c r="E53" t="n">
+        <v>3.410459197171444e-09</v>
+      </c>
+      <c r="F53" t="n">
         <v>0.03785410882755788</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>1.675033193847992</v>
       </c>
     </row>
@@ -1834,12 +1995,15 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-0.02670788672627327</v>
+        <v>-0.02670788672627304</v>
       </c>
       <c r="E54" t="n">
+        <v>4.138332988082333e-06</v>
+      </c>
+      <c r="F54" t="n">
         <v>-1.423269143707511</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>718.4833724670115</v>
       </c>
     </row>
@@ -1860,12 +2024,15 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.04721737013762411</v>
+        <v>0.0472173701376235</v>
       </c>
       <c r="E55" t="n">
+        <v>3.851652430344726e-16</v>
+      </c>
+      <c r="F55" t="n">
         <v>0.3077838160584609</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>-12.58863042997145</v>
       </c>
     </row>
@@ -1886,12 +2053,15 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.1096282329917627</v>
+        <v>0.1096282329917636</v>
       </c>
       <c r="E56" t="n">
+        <v>4.158738480923618e-80</v>
+      </c>
+      <c r="F56" t="n">
         <v>20.51889002220316</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>492.4346160403147</v>
       </c>
     </row>
@@ -1912,12 +2082,15 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-0.1344642211115597</v>
+        <v>-0.1344642211115607</v>
       </c>
       <c r="E57" t="n">
+        <v>6.645442573993818e-120</v>
+      </c>
+      <c r="F57" t="n">
         <v>-0.560148193552326</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>140.767516923324</v>
       </c>
     </row>
@@ -1938,12 +2111,15 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-0.02531498956828564</v>
+        <v>-0.02531498956828472</v>
       </c>
       <c r="E58" t="n">
+        <v>0.0002184108328033898</v>
+      </c>
+      <c r="F58" t="n">
         <v>-0.001456861363461111</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>1.036776400532068</v>
       </c>
     </row>
@@ -1964,12 +2140,15 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.1156050746165973</v>
+        <v>0.1156050746166027</v>
       </c>
       <c r="E59" t="n">
+        <v>2.686684857540048e-68</v>
+      </c>
+      <c r="F59" t="n">
         <v>0.07570427030866468</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>7.985377795011414</v>
       </c>
     </row>
@@ -1990,12 +2169,15 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-0.1740937957076003</v>
+        <v>-0.1740937957076024</v>
       </c>
       <c r="E60" t="n">
+        <v>7.349547737892304e-168</v>
+      </c>
+      <c r="F60" t="n">
         <v>-194.1845795672869</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>50008.52880323533</v>
       </c>
     </row>
@@ -2016,12 +2198,15 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-0.04256613894747194</v>
+        <v>-0.04256613894747296</v>
       </c>
       <c r="E61" t="n">
+        <v>2.037383440955914e-11</v>
+      </c>
+      <c r="F61" t="n">
         <v>-0.2818008902903851</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>243.6985628906384</v>
       </c>
     </row>
@@ -2042,12 +2227,15 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.04656147197746205</v>
+        <v>0.04656147197746114</v>
       </c>
       <c r="E62" t="n">
+        <v>1.360662469758508e-14</v>
+      </c>
+      <c r="F62" t="n">
         <v>0.0002095090071566775</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>0.03658596148324618</v>
       </c>
     </row>
@@ -2068,12 +2256,15 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.04451664894109141</v>
+        <v>0.0445166489410859</v>
       </c>
       <c r="E63" t="n">
+        <v>1.848182805530108e-13</v>
+      </c>
+      <c r="F63" t="n">
         <v>0.0001544476271486387</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>0.02650087770099541</v>
       </c>
     </row>
@@ -2094,12 +2285,15 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.01173167302381236</v>
+        <v>0.0117316730238113</v>
       </c>
       <c r="E64" t="n">
+        <v>0.05255664911326047</v>
+      </c>
+      <c r="F64" t="n">
         <v>8.82742603494505e-06</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>0.006133991275771519</v>
       </c>
     </row>
@@ -2120,12 +2314,15 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.04535308108221742</v>
+        <v>0.04535308108221534</v>
       </c>
       <c r="E65" t="n">
+        <v>6.383906338024121e-14</v>
+      </c>
+      <c r="F65" t="n">
         <v>0.0009065867485092439</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>0.173739686000028</v>
       </c>
     </row>
@@ -2146,12 +2343,15 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.01102914905016558</v>
+        <v>0.01102914905016544</v>
       </c>
       <c r="E66" t="n">
+        <v>0.06834575840508593</v>
+      </c>
+      <c r="F66" t="n">
         <v>2.976900119236783e-06</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>0.001415690273896468</v>
       </c>
     </row>
@@ -2172,12 +2372,15 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.04583543269289169</v>
+        <v>0.04583543269289052</v>
       </c>
       <c r="E67" t="n">
+        <v>3.490464257675884e-14</v>
+      </c>
+      <c r="F67" t="n">
         <v>0.0008813951032178048</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>0.1624102104120614</v>
       </c>
     </row>
@@ -2198,12 +2401,15 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.09460822588240134</v>
+        <v>0.09460822588239655</v>
       </c>
       <c r="E68" t="n">
+        <v>2.339515208742231e-55</v>
+      </c>
+      <c r="F68" t="n">
         <v>0.001616228074966859</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>0.08417888545896102</v>
       </c>
     </row>
@@ -2224,12 +2430,15 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.09243683043712929</v>
+        <v>0.09243683043712554</v>
       </c>
       <c r="E69" t="n">
+        <v>6.536985446562249e-53</v>
+      </c>
+      <c r="F69" t="n">
         <v>0.001499789260755062</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>0.08251348680001672</v>
       </c>
     </row>
@@ -2250,12 +2459,15 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.06269520654793906</v>
+        <v>0.06269520654793599</v>
       </c>
       <c r="E70" t="n">
+        <v>3.321697510422626e-25</v>
+      </c>
+      <c r="F70" t="n">
         <v>9.970159617114969e-05</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>0.0007829812223221272</v>
       </c>
     </row>
@@ -2276,12 +2488,15 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.01847518382705095</v>
+        <v>0.0184751838270518</v>
       </c>
       <c r="E71" t="n">
+        <v>0.001944969024642023</v>
+      </c>
+      <c r="F71" t="n">
         <v>0.0002523098873427119</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>0.7012161296286912</v>
       </c>
     </row>
@@ -2302,12 +2517,15 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-0.02614582931311006</v>
+        <v>-0.02614582931311119</v>
       </c>
       <c r="E72" t="n">
+        <v>1.158028359136976e-05</v>
+      </c>
+      <c r="F72" t="n">
         <v>-0.0002544610915920877</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>0.1681349121182439</v>
       </c>
     </row>
@@ -2328,12 +2546,15 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-0.01661560843689562</v>
+        <v>-0.0166156084368967</v>
       </c>
       <c r="E73" t="n">
+        <v>0.005320060231071802</v>
+      </c>
+      <c r="F73" t="n">
         <v>-2.702875437239711e-05</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>0.009920124809008141</v>
       </c>
     </row>
@@ -2354,12 +2575,15 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.021496736794628</v>
+        <v>0.02149673679462931</v>
       </c>
       <c r="E74" t="n">
+        <v>0.0003110951134375066</v>
+      </c>
+      <c r="F74" t="n">
         <v>0.0001657303876267266</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>0.923496025896829</v>
       </c>
     </row>
@@ -2380,12 +2604,15 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-0.00776048751691469</v>
+        <v>-0.007760487516914829</v>
       </c>
       <c r="E75" t="n">
+        <v>0.1930067030381297</v>
+      </c>
+      <c r="F75" t="n">
         <v>-6.152616139088535e-05</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>0.9592729293787208</v>
       </c>
     </row>
@@ -2406,12 +2633,15 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.05664027330498698</v>
+        <v>0.05664027330498823</v>
       </c>
       <c r="E76" t="n">
+        <v>1.938620746667384e-21</v>
+      </c>
+      <c r="F76" t="n">
         <v>0.0002406879910729241</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>0.02245009896483713</v>
       </c>
     </row>
@@ -2432,12 +2662,15 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.009899191503817984</v>
+        <v>0.009899191503818225</v>
       </c>
       <c r="E77" t="n">
+        <v>0.1001255979219938</v>
+      </c>
+      <c r="F77" t="n">
         <v>0.002570243015089722</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>0.01203534587166247</v>
       </c>
     </row>
@@ -2458,12 +2691,15 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-0.03537708505403749</v>
+        <v>-0.03537708505403691</v>
       </c>
       <c r="E78" t="n">
+        <v>1.354228632604592e-07</v>
+      </c>
+      <c r="F78" t="n">
         <v>-0.0001103036844400728</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>0.03587004659699922</v>
       </c>
     </row>
@@ -2484,12 +2720,15 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-0.1826097558056665</v>
+        <v>-0.1826097558056682</v>
       </c>
       <c r="E79" t="n">
+        <v>9.965032249366903e-205</v>
+      </c>
+      <c r="F79" t="n">
         <v>-0.003950705258989831</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>0.622878392671279</v>
       </c>
     </row>
@@ -2510,12 +2749,15 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-0.09158373834418232</v>
+        <v>-0.09158373834418196</v>
       </c>
       <c r="E80" t="n">
+        <v>1.814988155762851e-52</v>
+      </c>
+      <c r="F80" t="n">
         <v>-0.002509859008234487</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>0.5322065253298691</v>
       </c>
     </row>
@@ -2536,12 +2778,15 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-0.0800957227596793</v>
+        <v>-0.08009572275967765</v>
       </c>
       <c r="E81" t="n">
+        <v>2.307195334202881e-40</v>
+      </c>
+      <c r="F81" t="n">
         <v>-0.00074802423450919</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>0.09018986167241742</v>
       </c>
     </row>
@@ -2562,12 +2807,15 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-0.1797419615038787</v>
+        <v>-0.1797419615038745</v>
       </c>
       <c r="E82" t="n">
+        <v>4.8959235158996e-199</v>
+      </c>
+      <c r="F82" t="n">
         <v>-0.009384689646972621</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>1.611144455131764</v>
       </c>
     </row>
@@ -2588,12 +2836,15 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>-0.001715577383956765</v>
+        <v>-0.001715577383956571</v>
       </c>
       <c r="E83" t="n">
+        <v>0.775853591588562</v>
+      </c>
+      <c r="F83" t="n">
         <v>-2.401051592975792e-05</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>0.02061712724207078</v>
       </c>
     </row>
@@ -2614,12 +2865,15 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.01614074691458667</v>
+        <v>0.01614074691458521</v>
       </c>
       <c r="E84" t="n">
+        <v>0.007384695104825534</v>
+      </c>
+      <c r="F84" t="n">
         <v>0.004071261369947112</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>-0.2259604476151825</v>
       </c>
     </row>
@@ -2640,12 +2894,15 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-0.3285326318215179</v>
+        <v>-0.3285326318215174</v>
       </c>
       <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
         <v>-0.002501203815480098</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>0.2401333902827098</v>
       </c>
     </row>
@@ -2666,12 +2923,15 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-0.08515250214885922</v>
+        <v>-0.08515250214885972</v>
       </c>
       <c r="E86" t="n">
+        <v>2.065522651509415e-45</v>
+      </c>
+      <c r="F86" t="n">
         <v>-0.002945915395598735</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>0.627558365016424</v>
       </c>
     </row>
@@ -2692,12 +2952,15 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-0.1870108388741556</v>
+        <v>-0.1870108388741521</v>
       </c>
       <c r="E87" t="n">
+        <v>1.400599058684928e-215</v>
+      </c>
+      <c r="F87" t="n">
         <v>-0.01298644648190412</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>2.319631422450938</v>
       </c>
     </row>
@@ -2718,12 +2981,15 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-0.1264889655639824</v>
+        <v>-0.1264889655639783</v>
       </c>
       <c r="E88" t="n">
+        <v>1.279920726582979e-98</v>
+      </c>
+      <c r="F88" t="n">
         <v>-0.001701361526325783</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>0.2125348181803915</v>
       </c>
     </row>
@@ -2744,12 +3010,15 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-0.1004747136625875</v>
+        <v>-0.1004747136625808</v>
       </c>
       <c r="E89" t="n">
+        <v>1.150947492996088e-64</v>
+      </c>
+      <c r="F89" t="n">
         <v>-0.0005519465058095948</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>0.105682437291592</v>
       </c>
     </row>
@@ -2770,12 +3039,15 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.03274615798451324</v>
+        <v>0.03274615798451193</v>
       </c>
       <c r="E90" t="n">
+        <v>3.359950857577273e-08</v>
+      </c>
+      <c r="F90" t="n">
         <v>0.0004123761716374965</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>0.2223886536745117</v>
       </c>
     </row>
@@ -2796,12 +3068,15 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-0.0299090134783848</v>
+        <v>-0.02990901347838344</v>
       </c>
       <c r="E91" t="n">
+        <v>4.584124028883613e-07</v>
+      </c>
+      <c r="F91" t="n">
         <v>-0.0004338323386293957</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>0.7071409062776827</v>
       </c>
     </row>
@@ -2822,12 +3097,15 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-0.1406718566066853</v>
+        <v>-0.1406718566066788</v>
       </c>
       <c r="E92" t="n">
+        <v>1.559633398602552e-125</v>
+      </c>
+      <c r="F92" t="n">
         <v>-0.001984035004884581</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>0.8361350918955113</v>
       </c>
     </row>
@@ -2848,12 +3126,15 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-0.06713439118809765</v>
+        <v>-0.06713439118809605</v>
       </c>
       <c r="E93" t="n">
+        <v>1.030725330405313e-29</v>
+      </c>
+      <c r="F93" t="n">
         <v>-0.001204972845847622</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>0.7331530861231877</v>
       </c>
     </row>
@@ -2874,12 +3155,15 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.07263572122858966</v>
+        <v>0.07263572122858651</v>
       </c>
       <c r="E94" t="n">
+        <v>2.744936807000284e-33</v>
+      </c>
+      <c r="F94" t="n">
         <v>0.0002055650435381149</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>0.02166424788066742</v>
       </c>
     </row>
@@ -2900,12 +3184,15 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.1112594115102676</v>
+        <v>0.1112594115102648</v>
       </c>
       <c r="E95" t="n">
+        <v>5.553792017405863e-76</v>
+      </c>
+      <c r="F95" t="n">
         <v>0.0002520557821990073</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>0.01145622787348266</v>
       </c>
     </row>
@@ -2926,12 +3213,15 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.06093549971111021</v>
+        <v>0.06093549971110821</v>
       </c>
       <c r="E96" t="n">
+        <v>6.705675806773288e-24</v>
+      </c>
+      <c r="F96" t="n">
         <v>3.942080514401664e-05</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>0.005025539697705366</v>
       </c>
     </row>
@@ -2952,12 +3242,15 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-0.05458833680525634</v>
+        <v>-0.05458833680525382</v>
       </c>
       <c r="E97" t="n">
+        <v>9.555462253209204e-14</v>
+      </c>
+      <c r="F97" t="n">
         <v>-0.006630032721875049</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>6.555071372049469</v>
       </c>
     </row>
@@ -2978,12 +3271,15 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.02165724092665486</v>
+        <v>0.0216572409266543</v>
       </c>
       <c r="E98" t="n">
+        <v>0.002174246095673871</v>
+      </c>
+      <c r="F98" t="n">
         <v>0.04139981726424802</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>50.30721911847692</v>
       </c>
     </row>
@@ -3004,12 +3300,15 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-0.1115404127365052</v>
+        <v>-0.1115404127365071</v>
       </c>
       <c r="E99" t="n">
+        <v>1.394555386979127e-57</v>
+      </c>
+      <c r="F99" t="n">
         <v>-0.5284615385659246</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>223.9192054446459</v>
       </c>
     </row>
@@ -3030,12 +3329,15 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-0.05036622505154897</v>
+        <v>-0.05036622505154947</v>
       </c>
       <c r="E100" t="n">
+        <v>4.318968503108431e-13</v>
+      </c>
+      <c r="F100" t="n">
         <v>-0.02313295317605641</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>5.102589874404467</v>
       </c>
     </row>
@@ -3056,12 +3358,15 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.2019858270047298</v>
+        <v>0.2019858270047357</v>
       </c>
       <c r="E101" t="n">
+        <v>4.023242875895074e-189</v>
+      </c>
+      <c r="F101" t="n">
         <v>0.01261366682967892</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>0.2796224612279973</v>
       </c>
     </row>
@@ -3082,12 +3387,15 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-0.6512857253108141</v>
+        <v>-0.6512857253109007</v>
       </c>
       <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
         <v>-16654066.13519811</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>1450048861.065715</v>
       </c>
     </row>
@@ -3108,12 +3416,15 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-0.6512857219026269</v>
+        <v>-0.651285721902742</v>
       </c>
       <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
         <v>-16654.06615397149</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>1450048.845868431</v>
       </c>
     </row>
@@ -3134,12 +3445,15 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-0.07288625609995467</v>
+        <v>-0.07288625609996191</v>
       </c>
       <c r="E104" t="n">
+        <v>3.949828473989909e-75</v>
+      </c>
+      <c r="F104" t="n">
         <v>-0.8143089552934122</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>251.7107866370034</v>
       </c>
     </row>
@@ -3160,12 +3474,15 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.06176504593280105</v>
+        <v>0.06176504593280601</v>
       </c>
       <c r="E105" t="n">
+        <v>1.721092892201968e-47</v>
+      </c>
+      <c r="F105" t="n">
         <v>0.000353916366603</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>0.0301791205330827</v>
       </c>
     </row>
@@ -3186,12 +3503,15 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.06742414177628517</v>
+        <v>0.0674241417762674</v>
       </c>
       <c r="E106" t="n">
+        <v>2.766183541339436e-56</v>
+      </c>
+      <c r="F106" t="n">
         <v>0.0009318852010388949</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>0.146382153666769</v>
       </c>
     </row>
@@ -3212,12 +3532,15 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-0.1186173071942228</v>
+        <v>-0.1186173071942336</v>
       </c>
       <c r="E107" t="n">
+        <v>8.157686210191903e-175</v>
+      </c>
+      <c r="F107" t="n">
         <v>-0.003514452793384702</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>4.186943136838008</v>
       </c>
     </row>
@@ -3238,12 +3561,15 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>-0.005121828417683684</v>
+        <v>-0.005121828417683258</v>
       </c>
       <c r="E108" t="n">
+        <v>0.2252620426291516</v>
+      </c>
+      <c r="F108" t="n">
         <v>-0.01317207945959969</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>81.27765213998872</v>
       </c>
     </row>
@@ -3264,12 +3590,15 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-0.1790245847324307</v>
+        <v>-0.1790245847324188</v>
       </c>
       <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
         <v>-0.2459563931935972</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>37.78644202370723</v>
       </c>
     </row>
@@ -3290,12 +3619,15 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>-0.03489779363312615</v>
+        <v>-0.0348977936331257</v>
       </c>
       <c r="E110" t="n">
+        <v>2.961798554921047e-16</v>
+      </c>
+      <c r="F110" t="n">
         <v>-0.007105537428492881</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>2.511382352254843</v>
       </c>
     </row>
@@ -3316,12 +3648,15 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.09860279520916219</v>
+        <v>0.09860279520913545</v>
       </c>
       <c r="E111" t="n">
+        <v>1.548648469559339e-118</v>
+      </c>
+      <c r="F111" t="n">
         <v>0.002007189833642912</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>0.4299573186525736</v>
       </c>
     </row>
@@ -3342,12 +3677,15 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.02772107014135053</v>
+        <v>0.02772107014135424</v>
       </c>
       <c r="E112" t="n">
+        <v>8.468508078877317e-11</v>
+      </c>
+      <c r="F112" t="n">
         <v>0.003851946287169281</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>3.661443381684483</v>
       </c>
     </row>
@@ -3368,12 +3706,15 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-0.08515311828389553</v>
+        <v>-0.0851531182838744</v>
       </c>
       <c r="E113" t="n">
+        <v>5.425326514052342e-90</v>
+      </c>
+      <c r="F113" t="n">
         <v>-0.1209925409965909</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>31.33117801194319</v>
       </c>
     </row>
@@ -3394,12 +3735,15 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.06760941796065878</v>
+        <v>0.06760941796066039</v>
       </c>
       <c r="E114" t="n">
+        <v>1.43674682863038e-56</v>
+      </c>
+      <c r="F114" t="n">
         <v>0.004106038836839574</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>0.611473212320818</v>
       </c>
     </row>
@@ -3420,12 +3764,15 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.0682883766996558</v>
+        <v>0.06828837669965562</v>
       </c>
       <c r="E115" t="n">
+        <v>7.891353529091957e-59</v>
+      </c>
+      <c r="F115" t="n">
         <v>0.001713553835706066</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>0.3592105145261141</v>
       </c>
     </row>
@@ -3446,12 +3793,15 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.2291608770761411</v>
+        <v>0.2291608770761296</v>
       </c>
       <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
         <v>0.1397436843745485</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>7.91300196042619</v>
       </c>
     </row>
@@ -3472,12 +3822,15 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.006359140052163067</v>
+        <v>0.006359140052162957</v>
       </c>
       <c r="E117" t="n">
+        <v>0.1323059118556194</v>
+      </c>
+      <c r="F117" t="n">
         <v>0.000228350080298857</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>9.281495915104623</v>
       </c>
     </row>
@@ -3498,12 +3851,15 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-0.1220863203259287</v>
+        <v>-0.1220863203259282</v>
       </c>
       <c r="E118" t="n">
+        <v>4.088286459046477e-185</v>
+      </c>
+      <c r="F118" t="n">
         <v>-0.4497361732599512</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>217.8217413455707</v>
       </c>
     </row>
@@ -3524,12 +3880,15 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>-0.03093799865807938</v>
+        <v>-0.03093799865807177</v>
       </c>
       <c r="E119" t="n">
+        <v>2.339201426937439e-13</v>
+      </c>
+      <c r="F119" t="n">
         <v>-0.00880579881827355</v>
       </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
         <v>101.4959620940127</v>
       </c>
     </row>
@@ -3550,12 +3909,15 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-0.0541469607668465</v>
+        <v>-0.0541469607668416</v>
       </c>
       <c r="E120" t="n">
+        <v>1.125857745993885e-37</v>
+      </c>
+      <c r="F120" t="n">
         <v>-1.892584937991238</v>
       </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
         <v>442.7453718899218</v>
       </c>
     </row>
@@ -3576,12 +3938,15 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.1187335489155981</v>
+        <v>0.118733548915598</v>
       </c>
       <c r="E121" t="n">
+        <v>6.116124289356124e-175</v>
+      </c>
+      <c r="F121" t="n">
         <v>0.02827860809935635</v>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>22.12348380097656</v>
       </c>
     </row>
@@ -3602,12 +3967,15 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.06993911501215501</v>
+        <v>0.06993911501214055</v>
       </c>
       <c r="E122" t="n">
+        <v>8.876027789797348e-62</v>
+      </c>
+      <c r="F122" t="n">
         <v>0.003718187878428928</v>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>0.6966828564259727</v>
       </c>
     </row>
@@ -3628,12 +3996,15 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.04095608526186003</v>
+        <v>0.04095608526185925</v>
       </c>
       <c r="E123" t="n">
+        <v>2.99250024188891e-22</v>
+      </c>
+      <c r="F123" t="n">
         <v>0.03596178060900788</v>
       </c>
-      <c r="F123" t="n">
+      <c r="G123" t="n">
         <v>2.028969087511622</v>
       </c>
     </row>
@@ -3654,12 +4025,15 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.2305541482177806</v>
+        <v>0.2305541482177375</v>
       </c>
       <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
         <v>0.0110611708559525</v>
       </c>
-      <c r="F124" t="n">
+      <c r="G124" t="n">
         <v>0.3876681945487847</v>
       </c>
     </row>
@@ -3680,12 +4054,15 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-0.3371331624034906</v>
+        <v>-0.3371331624034477</v>
       </c>
       <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
         <v>-0.07529195723637026</v>
       </c>
-      <c r="F125" t="n">
+      <c r="G125" t="n">
         <v>7.639045796295131</v>
       </c>
     </row>
@@ -3706,12 +4083,15 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.1015581165120388</v>
+        <v>0.1015581165120347</v>
       </c>
       <c r="E126" t="n">
+        <v>1.15210575541091e-125</v>
+      </c>
+      <c r="F126" t="n">
         <v>0.01971752997713106</v>
       </c>
-      <c r="F126" t="n">
+      <c r="G126" t="n">
         <v>1.788736953030825</v>
       </c>
     </row>
@@ -3732,12 +4112,15 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-0.02756227185465633</v>
+        <v>-0.02756227185465663</v>
       </c>
       <c r="E127" t="n">
+        <v>6.883763697095007e-11</v>
+      </c>
+      <c r="F127" t="n">
         <v>-0.4715435649461954</v>
       </c>
-      <c r="F127" t="n">
+      <c r="G127" t="n">
         <v>183.7697316412973</v>
       </c>
     </row>
@@ -3758,12 +4141,15 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.001923330444656517</v>
+        <v>0.001923330444656447</v>
       </c>
       <c r="E128" t="n">
+        <v>0.6492063488993731</v>
+      </c>
+      <c r="F128" t="n">
         <v>0.007162432302970902</v>
       </c>
-      <c r="F128" t="n">
+      <c r="G128" t="n">
         <v>107.8507501636434</v>
       </c>
     </row>
@@ -3784,12 +4170,15 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-0.09861649404785881</v>
+        <v>-0.09861649404786496</v>
       </c>
       <c r="E129" t="n">
+        <v>1.108463438500191e-118</v>
+      </c>
+      <c r="F129" t="n">
         <v>-0.03861956542845752</v>
       </c>
-      <c r="F129" t="n">
+      <c r="G129" t="n">
         <v>44.37111914855638</v>
       </c>
     </row>
@@ -3810,12 +4199,15 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.0104895464057711</v>
+        <v>0.01048954640577132</v>
       </c>
       <c r="E130" t="n">
+        <v>0.01299162900263028</v>
+      </c>
+      <c r="F130" t="n">
         <v>0.02093310014841797</v>
       </c>
-      <c r="F130" t="n">
+      <c r="G130" t="n">
         <v>56.33375826867712</v>
       </c>
     </row>
@@ -3836,12 +4228,15 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>-0.1219908598425815</v>
+        <v>-0.1219908598425687</v>
       </c>
       <c r="E131" t="n">
+        <v>4.007572055413382e-181</v>
+      </c>
+      <c r="F131" t="n">
         <v>-0.01676031019601281</v>
       </c>
-      <c r="F131" t="n">
+      <c r="G131" t="n">
         <v>14.81665992723771</v>
       </c>
     </row>
@@ -3862,12 +4257,15 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.07433551577949507</v>
+        <v>0.0743355157794913</v>
       </c>
       <c r="E132" t="n">
+        <v>2.258845575435391e-69</v>
+      </c>
+      <c r="F132" t="n">
         <v>0.003006395903769788</v>
       </c>
-      <c r="F132" t="n">
+      <c r="G132" t="n">
         <v>3.982120361555879</v>
       </c>
     </row>
@@ -3888,12 +4286,15 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-0.1125308168511509</v>
+        <v>-0.1125308168511415</v>
       </c>
       <c r="E133" t="n">
+        <v>5.922897811025635e-154</v>
+      </c>
+      <c r="F133" t="n">
         <v>-0.3549013906251526</v>
       </c>
-      <c r="F133" t="n">
+      <c r="G133" t="n">
         <v>125.1753731332232</v>
       </c>
     </row>
@@ -3914,12 +4315,15 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-0.179550630039435</v>
+        <v>-0.179550630039432</v>
       </c>
       <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
         <v>-0.155021567919034</v>
       </c>
-      <c r="F134" t="n">
+      <c r="G134" t="n">
         <v>40.56903786384922</v>
       </c>
     </row>
@@ -3940,12 +4344,15 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.09752900634638761</v>
+        <v>0.09752900634640968</v>
       </c>
       <c r="E135" t="n">
+        <v>8.12866326552774e-116</v>
+      </c>
+      <c r="F135" t="n">
         <v>0.02008215569110647</v>
       </c>
-      <c r="F135" t="n">
+      <c r="G135" t="n">
         <v>29.18033516691652</v>
       </c>
     </row>
@@ -3966,12 +4373,15 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>-0.08430047021966634</v>
+        <v>-0.08430047021967499</v>
       </c>
       <c r="E136" t="n">
+        <v>1.50409257387852e-86</v>
+      </c>
+      <c r="F136" t="n">
         <v>-0.009645647463244721</v>
       </c>
-      <c r="F136" t="n">
+      <c r="G136" t="n">
         <v>33.44682806634331</v>
       </c>
     </row>
@@ -3992,12 +4402,15 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.1592738800432519</v>
+        <v>0.1592738800432645</v>
       </c>
       <c r="E137" t="n">
+        <v>1.32186987675172e-308</v>
+      </c>
+      <c r="F137" t="n">
         <v>0.09656400737215262</v>
       </c>
-      <c r="F137" t="n">
+      <c r="G137" t="n">
         <v>86.69660380721562</v>
       </c>
     </row>
@@ -4018,12 +4431,15 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.145542771997691</v>
+        <v>0.14554277199769</v>
       </c>
       <c r="E138" t="n">
+        <v>2.530903160012965e-257</v>
+      </c>
+      <c r="F138" t="n">
         <v>0.03314184630760953</v>
       </c>
-      <c r="F138" t="n">
+      <c r="G138" t="n">
         <v>6.231640277770822</v>
       </c>
     </row>
@@ -4044,12 +4460,15 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.01934370525120322</v>
+        <v>0.01934370525120318</v>
       </c>
       <c r="E139" t="n">
+        <v>6.385386489410247e-06</v>
+      </c>
+      <c r="F139" t="n">
         <v>0.00183918636330348</v>
       </c>
-      <c r="F139" t="n">
+      <c r="G139" t="n">
         <v>11.11415079283698</v>
       </c>
     </row>
@@ -4070,12 +4489,15 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.02487119445831639</v>
+        <v>0.02487119445831256</v>
       </c>
       <c r="E140" t="n">
+        <v>3.85329415850827e-09</v>
+      </c>
+      <c r="F140" t="n">
         <v>0.006438132353281167</v>
       </c>
-      <c r="F140" t="n">
+      <c r="G140" t="n">
         <v>139.0765815014665</v>
       </c>
     </row>
@@ -4096,12 +4518,15 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.1048822240234406</v>
+        <v>0.1048822240234438</v>
       </c>
       <c r="E141" t="n">
+        <v>6.698838045934716e-134</v>
+      </c>
+      <c r="F141" t="n">
         <v>0.0970991720155454</v>
       </c>
-      <c r="F141" t="n">
+      <c r="G141" t="n">
         <v>50.86735501458364</v>
       </c>
     </row>
@@ -4122,12 +4547,15 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.07706672650657387</v>
+        <v>0.0770667265065853</v>
       </c>
       <c r="E142" t="n">
+        <v>4.498671636921905e-73</v>
+      </c>
+      <c r="F142" t="n">
         <v>12.90206930421943</v>
       </c>
-      <c r="F142" t="n">
+      <c r="G142" t="n">
         <v>-553.9799148436362</v>
       </c>
     </row>
@@ -4148,12 +4576,15 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.02288746607275885</v>
+        <v>0.02288746607275616</v>
       </c>
       <c r="E143" t="n">
+        <v>9.287998532348427e-08</v>
+      </c>
+      <c r="F143" t="n">
         <v>0.005143729993638693</v>
       </c>
-      <c r="F143" t="n">
+      <c r="G143" t="n">
         <v>13.58606623038587</v>
       </c>
     </row>
@@ -4174,12 +4605,15 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-0.1303764082184442</v>
+        <v>-0.1303764082184274</v>
       </c>
       <c r="E144" t="n">
+        <v>9.772381258265426e-207</v>
+      </c>
+      <c r="F144" t="n">
         <v>-0.8016900924462502</v>
       </c>
-      <c r="F144" t="n">
+      <c r="G144" t="n">
         <v>283.6064635179617</v>
       </c>
     </row>
@@ -4200,12 +4634,15 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-0.1862630434864872</v>
+        <v>-0.1862630434864875</v>
       </c>
       <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
         <v>-0.008876343110938914</v>
       </c>
-      <c r="F145" t="n">
+      <c r="G145" t="n">
         <v>5.098630210452582</v>
       </c>
     </row>
@@ -4226,12 +4663,15 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.08456538021129148</v>
+        <v>0.08456538021128013</v>
       </c>
       <c r="E146" t="n">
+        <v>1.151660540106246e-87</v>
+      </c>
+      <c r="F146" t="n">
         <v>0.01102388057822106</v>
       </c>
-      <c r="F146" t="n">
+      <c r="G146" t="n">
         <v>13.18973919237581</v>
       </c>
     </row>
@@ -4252,12 +4692,15 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-0.06770684767967491</v>
+        <v>-0.06770684767967008</v>
       </c>
       <c r="E147" t="n">
+        <v>5.70251317129286e-58</v>
+      </c>
+      <c r="F147" t="n">
         <v>-0.5914204388459149</v>
       </c>
-      <c r="F147" t="n">
+      <c r="G147" t="n">
         <v>185.9152929140772</v>
       </c>
     </row>
@@ -4278,12 +4721,15 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-0.1525312794806711</v>
+        <v>-0.1525312794807056</v>
       </c>
       <c r="E148" t="n">
+        <v>5.007771977321115e-289</v>
+      </c>
+      <c r="F148" t="n">
         <v>-0.006358455127061641</v>
       </c>
-      <c r="F148" t="n">
+      <c r="G148" t="n">
         <v>7.306400969778239</v>
       </c>
     </row>
@@ -4304,12 +4750,15 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.001955576821779657</v>
+        <v>0.001955576821779576</v>
       </c>
       <c r="E149" t="n">
+        <v>0.6469793516413763</v>
+      </c>
+      <c r="F149" t="n">
         <v>0.0005149352184289336</v>
       </c>
-      <c r="F149" t="n">
+      <c r="G149" t="n">
         <v>6.738324511144911</v>
       </c>
     </row>
@@ -4330,12 +4779,15 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-0.002563039065249012</v>
+        <v>-0.002563039065249365</v>
       </c>
       <c r="E150" t="n">
+        <v>0.5454421969681195</v>
+      </c>
+      <c r="F150" t="n">
         <v>-0.001426787202942817</v>
       </c>
-      <c r="F150" t="n">
+      <c r="G150" t="n">
         <v>1.956970336992089</v>
       </c>
     </row>
@@ -4356,12 +4808,15 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.1447568111005236</v>
+        <v>0.1447568111005357</v>
       </c>
       <c r="E151" t="n">
+        <v>2.993657251567846e-258</v>
+      </c>
+      <c r="F151" t="n">
         <v>0.180007907730886</v>
       </c>
-      <c r="F151" t="n">
+      <c r="G151" t="n">
         <v>18.8008188824672</v>
       </c>
     </row>
@@ -4382,12 +4837,15 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-0.1749526254905785</v>
+        <v>-0.1749526254905728</v>
       </c>
       <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
         <v>-236.2349479144506</v>
       </c>
-      <c r="F152" t="n">
+      <c r="G152" t="n">
         <v>63895.40383215668</v>
       </c>
     </row>
@@ -4408,12 +4866,15 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.02081495975257749</v>
+        <v>0.02081495975257813</v>
       </c>
       <c r="E153" t="n">
+        <v>8.46271731463138e-07</v>
+      </c>
+      <c r="F153" t="n">
         <v>0.01517827442499505</v>
       </c>
-      <c r="F153" t="n">
+      <c r="G153" t="n">
         <v>3.016834895641331</v>
       </c>
     </row>
@@ -4434,12 +4895,15 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>-0.01620086820879312</v>
+        <v>-0.01620086820879316</v>
       </c>
       <c r="E154" t="n">
+        <v>0.0001267849025439413</v>
+      </c>
+      <c r="F154" t="n">
         <v>-0.7142986899073899</v>
       </c>
-      <c r="F154" t="n">
+      <c r="G154" t="n">
         <v>631.6535372604898</v>
       </c>
     </row>
@@ -4460,12 +4924,15 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.03057787334342945</v>
+        <v>0.03057787334342818</v>
       </c>
       <c r="E155" t="n">
+        <v>4.655605443574291e-13</v>
+      </c>
+      <c r="F155" t="n">
         <v>0.1425164425239225</v>
       </c>
-      <c r="F155" t="n">
+      <c r="G155" t="n">
         <v>-2.384909690577378</v>
       </c>
     </row>
@@ -4486,12 +4953,15 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.09582111268875702</v>
+        <v>0.09582111268875493</v>
       </c>
       <c r="E156" t="n">
+        <v>2.901031114602384e-114</v>
+      </c>
+      <c r="F156" t="n">
         <v>16.45534637126431</v>
       </c>
-      <c r="F156" t="n">
+      <c r="G156" t="n">
         <v>712.4002065709237</v>
       </c>
     </row>
@@ -4512,12 +4982,15 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-0.1827120313977343</v>
+        <v>-0.1827120313977237</v>
       </c>
       <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
         <v>-0.6678874482767351</v>
       </c>
-      <c r="F157" t="n">
+      <c r="G157" t="n">
         <v>149.1451282711671</v>
       </c>
     </row>
@@ -4538,12 +5011,15 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>-0.04347569198330022</v>
+        <v>-0.04347569198330526</v>
       </c>
       <c r="E158" t="n">
+        <v>1.155208554594066e-18</v>
+      </c>
+      <c r="F158" t="n">
         <v>-0.002410656935698109</v>
       </c>
-      <c r="F158" t="n">
+      <c r="G158" t="n">
         <v>1.095324601017788</v>
       </c>
     </row>
@@ -4564,12 +5040,15 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.02480171273754168</v>
+        <v>0.02480171273754091</v>
       </c>
       <c r="E159" t="n">
+        <v>2.539729252434706e-07</v>
+      </c>
+      <c r="F159" t="n">
         <v>0.01313330550140822</v>
       </c>
-      <c r="F159" t="n">
+      <c r="G159" t="n">
         <v>12.15311659713962</v>
       </c>
     </row>
@@ -4590,12 +5069,15 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>-0.1180816156971597</v>
+        <v>-0.1180816156971375</v>
       </c>
       <c r="E160" t="n">
+        <v>2.901301543673213e-145</v>
+      </c>
+      <c r="F160" t="n">
         <v>-110.974407036006</v>
       </c>
-      <c r="F160" t="n">
+      <c r="G160" t="n">
         <v>43597.19489703595</v>
       </c>
     </row>
@@ -4616,12 +5098,15 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0.01448250477444123</v>
+        <v>0.0144825047744386</v>
       </c>
       <c r="E161" t="n">
+        <v>0.00170760409894437</v>
+      </c>
+      <c r="F161" t="n">
         <v>0.09054652492687972</v>
       </c>
-      <c r="F161" t="n">
+      <c r="G161" t="n">
         <v>215.4819147755026</v>
       </c>
     </row>
@@ -4642,12 +5127,15 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.02479887938000776</v>
+        <v>0.02479887938000759</v>
       </c>
       <c r="E162" t="n">
+        <v>1.806457207034868e-08</v>
+      </c>
+      <c r="F162" t="n">
         <v>0.0001345741629542007</v>
       </c>
-      <c r="F162" t="n">
+      <c r="G162" t="n">
         <v>0.0412165870964413</v>
       </c>
     </row>
@@ -4668,12 +5156,15 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.03555465906737298</v>
+        <v>0.03555465906737088</v>
       </c>
       <c r="E163" t="n">
+        <v>6.919425142240451e-16</v>
+      </c>
+      <c r="F163" t="n">
         <v>0.0001093880041162329</v>
       </c>
-      <c r="F163" t="n">
+      <c r="G163" t="n">
         <v>0.02874498453881679</v>
       </c>
     </row>
@@ -4694,12 +5185,15 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>-0.003729456918061487</v>
+        <v>-0.003729456918061302</v>
       </c>
       <c r="E164" t="n">
+        <v>0.3973132083129122</v>
+      </c>
+      <c r="F164" t="n">
         <v>-1.005492886691276e-05</v>
       </c>
-      <c r="F164" t="n">
+      <c r="G164" t="n">
         <v>0.007794361195009134</v>
       </c>
     </row>
@@ -4720,12 +5214,15 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.08952455484971591</v>
+        <v>0.08952455484971211</v>
       </c>
       <c r="E165" t="n">
+        <v>3.732293730242568e-92</v>
+      </c>
+      <c r="F165" t="n">
         <v>0.001455573436777974</v>
       </c>
-      <c r="F165" t="n">
+      <c r="G165" t="n">
         <v>0.1283241278777154</v>
       </c>
     </row>
@@ -4746,12 +5243,15 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.01606145785697279</v>
+        <v>0.01606145785697265</v>
       </c>
       <c r="E166" t="n">
+        <v>0.0002668764319263028</v>
+      </c>
+      <c r="F166" t="n">
         <v>3.627322129205532e-06</v>
       </c>
-      <c r="F166" t="n">
+      <c r="G166" t="n">
         <v>0.001450042549362576</v>
       </c>
     </row>
@@ -4772,12 +5272,15 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.08551464104198532</v>
+        <v>0.08551464104198014</v>
       </c>
       <c r="E167" t="n">
+        <v>3.290511032804848e-84</v>
+      </c>
+      <c r="F167" t="n">
         <v>0.001337944345758426</v>
       </c>
-      <c r="F167" t="n">
+      <c r="G167" t="n">
         <v>0.1234230625889962</v>
       </c>
     </row>
@@ -4798,12 +5301,15 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.09776841788392643</v>
+        <v>0.0977684178839222</v>
       </c>
       <c r="E168" t="n">
+        <v>1.281903720093482e-109</v>
+      </c>
+      <c r="F168" t="n">
         <v>0.001388804393635808</v>
       </c>
-      <c r="F168" t="n">
+      <c r="G168" t="n">
         <v>0.1009965596865178</v>
       </c>
     </row>
@@ -4824,12 +5330,15 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.09361370293520423</v>
+        <v>0.09361370293520593</v>
       </c>
       <c r="E169" t="n">
+        <v>1.339891680568586e-100</v>
+      </c>
+      <c r="F169" t="n">
         <v>0.001259642754770759</v>
       </c>
-      <c r="F169" t="n">
+      <c r="G169" t="n">
         <v>0.09920854019637129</v>
       </c>
     </row>
@@ -4850,12 +5359,15 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.1062038036592825</v>
+        <v>0.1062038036592817</v>
       </c>
       <c r="E170" t="n">
+        <v>4.47538815819588e-129</v>
+      </c>
+      <c r="F170" t="n">
         <v>0.0001566694854214349</v>
       </c>
-      <c r="F170" t="n">
+      <c r="G170" t="n">
         <v>-0.002811421474871748</v>
       </c>
     </row>
@@ -4876,12 +5388,15 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.03250153106845758</v>
+        <v>0.03250153106846239</v>
       </c>
       <c r="E171" t="n">
+        <v>9.341748851946832e-14</v>
+      </c>
+      <c r="F171" t="n">
         <v>0.0003971383061456159</v>
       </c>
-      <c r="F171" t="n">
+      <c r="G171" t="n">
         <v>0.6823926509860689</v>
       </c>
     </row>
@@ -4902,12 +5417,15 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-0.06423951007250757</v>
+        <v>-0.06423951007251913</v>
       </c>
       <c r="E172" t="n">
+        <v>3.780238601923099e-49</v>
+      </c>
+      <c r="F172" t="n">
         <v>-0.0005833762978628448</v>
       </c>
-      <c r="F172" t="n">
+      <c r="G172" t="n">
         <v>0.1992974368131922</v>
       </c>
     </row>
@@ -4928,12 +5446,15 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-0.03480690256760033</v>
+        <v>-0.03480690256759594</v>
       </c>
       <c r="E173" t="n">
+        <v>1.479662822909823e-15</v>
+      </c>
+      <c r="F173" t="n">
         <v>-4.856652752447201e-05</v>
       </c>
-      <c r="F173" t="n">
+      <c r="G173" t="n">
         <v>0.01209588214468972</v>
       </c>
     </row>
@@ -4954,12 +5475,15 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>-0.008666675129232245</v>
+        <v>-0.008666675129230923</v>
       </c>
       <c r="E174" t="n">
+        <v>0.04702683706929574</v>
+      </c>
+      <c r="F174" t="n">
         <v>-5.905041755559942e-05</v>
       </c>
-      <c r="F174" t="n">
+      <c r="G174" t="n">
         <v>0.9375042487263746</v>
       </c>
     </row>
@@ -4980,12 +5504,15 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>-0.01417253859350366</v>
+        <v>-0.01417253859350156</v>
       </c>
       <c r="E175" t="n">
+        <v>0.001163163118017406</v>
+      </c>
+      <c r="F175" t="n">
         <v>-0.0001171993387395277</v>
       </c>
-      <c r="F175" t="n">
+      <c r="G175" t="n">
         <v>0.9599498806652392</v>
       </c>
     </row>
@@ -5006,12 +5533,15 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.1060131035013239</v>
+        <v>0.1060131035013101</v>
       </c>
       <c r="E176" t="n">
+        <v>4.401174847315979e-131</v>
+      </c>
+      <c r="F176" t="n">
         <v>0.0004325781926316503</v>
       </c>
-      <c r="F176" t="n">
+      <c r="G176" t="n">
         <v>0.009504214116153473</v>
       </c>
     </row>
@@ -5032,12 +5562,15 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0.005335285715491238</v>
+        <v>0.005335285715490871</v>
       </c>
       <c r="E177" t="n">
+        <v>0.2216574391468951</v>
+      </c>
+      <c r="F177" t="n">
         <v>0.0009237974202330291</v>
       </c>
-      <c r="F177" t="n">
+      <c r="G177" t="n">
         <v>0.1140556057929903</v>
       </c>
     </row>
@@ -5058,12 +5591,15 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-0.04756843478877999</v>
+        <v>-0.04756843478878017</v>
       </c>
       <c r="E178" t="n">
+        <v>1.010214603745757e-22</v>
+      </c>
+      <c r="F178" t="n">
         <v>-0.0001291849745230097</v>
       </c>
-      <c r="F178" t="n">
+      <c r="G178" t="n">
         <v>0.03611378133721923</v>
       </c>
     </row>
@@ -5084,12 +5620,15 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>-0.2258748908168398</v>
+        <v>-0.2258748908168602</v>
       </c>
       <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
         <v>-0.00434240900253519</v>
       </c>
-      <c r="F179" t="n">
+      <c r="G179" t="n">
         <v>0.6393334051944448</v>
       </c>
     </row>
@@ -5110,12 +5649,15 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-0.1081438401696597</v>
+        <v>-0.1081438401696473</v>
       </c>
       <c r="E180" t="n">
+        <v>2.943575318416559e-136</v>
+      </c>
+      <c r="F180" t="n">
         <v>-0.002654205334474284</v>
       </c>
-      <c r="F180" t="n">
+      <c r="G180" t="n">
         <v>0.5255727105642617</v>
       </c>
     </row>
@@ -5136,12 +5678,15 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>-0.05196603736722154</v>
+        <v>-0.05196603736722841</v>
       </c>
       <c r="E181" t="n">
+        <v>1.383500504169505e-32</v>
+      </c>
+      <c r="F181" t="n">
         <v>-0.0002981260514499712</v>
       </c>
-      <c r="F181" t="n">
+      <c r="G181" t="n">
         <v>0.05286114586040556</v>
       </c>
     </row>
@@ -5162,12 +5707,15 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-0.198982888166321</v>
+        <v>-0.1989828881663101</v>
       </c>
       <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="n">
         <v>-0.008914214331559965</v>
       </c>
-      <c r="F182" t="n">
+      <c r="G182" t="n">
         <v>1.558968443651763</v>
       </c>
     </row>
@@ -5188,12 +5736,15 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>-0.01582249538680425</v>
+        <v>-0.01582249538680554</v>
       </c>
       <c r="E183" t="n">
+        <v>0.0002949174397622717</v>
+      </c>
+      <c r="F183" t="n">
         <v>-0.0001374603488991562</v>
       </c>
-      <c r="F183" t="n">
+      <c r="G183" t="n">
         <v>0.02740856153539077</v>
       </c>
     </row>
@@ -5214,12 +5765,15 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0.01234763898142208</v>
+        <v>0.01234763898142294</v>
       </c>
       <c r="E184" t="n">
+        <v>0.004732351923099188</v>
+      </c>
+      <c r="F184" t="n">
         <v>0.00197510257791941</v>
       </c>
-      <c r="F184" t="n">
+      <c r="G184" t="n">
         <v>-0.09749312223094055</v>
       </c>
     </row>
@@ -5240,12 +5794,15 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-0.3442625938151075</v>
+        <v>-0.3442625938151294</v>
       </c>
       <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
         <v>-0.002179028665575206</v>
       </c>
-      <c r="F185" t="n">
+      <c r="G185" t="n">
         <v>0.2159306560093282</v>
       </c>
     </row>
@@ -5266,12 +5823,15 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>-0.09750727257120285</v>
+        <v>-0.09750727257120423</v>
       </c>
       <c r="E186" t="n">
+        <v>1.429324419710565e-110</v>
+      </c>
+      <c r="F186" t="n">
         <v>-0.002863140743341652</v>
       </c>
-      <c r="F186" t="n">
+      <c r="G186" t="n">
         <v>0.626836371647966</v>
       </c>
     </row>
@@ -5292,12 +5852,15 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-0.2067911627048748</v>
+        <v>-0.2067911627048701</v>
       </c>
       <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
         <v>-0.012342914162219</v>
       </c>
-      <c r="F187" t="n">
+      <c r="G187" t="n">
         <v>2.235180619285013</v>
       </c>
     </row>
@@ -5318,12 +5881,15 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>-0.1322374115233169</v>
+        <v>-0.1322374115233262</v>
       </c>
       <c r="E188" t="n">
+        <v>9.02800839930457e-203</v>
+      </c>
+      <c r="F188" t="n">
         <v>-0.001316579482823447</v>
       </c>
-      <c r="F188" t="n">
+      <c r="G188" t="n">
         <v>0.1826427300131769</v>
       </c>
     </row>
@@ -5344,12 +5910,15 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>-0.08145657398136885</v>
+        <v>-0.08145657398137157</v>
       </c>
       <c r="E189" t="n">
+        <v>2.190450084054119e-79</v>
+      </c>
+      <c r="F189" t="n">
         <v>-0.0004090119316808843</v>
       </c>
-      <c r="F189" t="n">
+      <c r="G189" t="n">
         <v>0.09801597604613203</v>
       </c>
     </row>
@@ -5370,12 +5939,15 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0.01514293178198395</v>
+        <v>0.01514293178198358</v>
       </c>
       <c r="E190" t="n">
+        <v>0.0004626287124149871</v>
+      </c>
+      <c r="F190" t="n">
         <v>0.0001688770226268716</v>
       </c>
-      <c r="F190" t="n">
+      <c r="G190" t="n">
         <v>0.233902766780729</v>
       </c>
     </row>
@@ -5396,12 +5968,15 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>-0.02109691682899624</v>
+        <v>-0.02109691682899857</v>
       </c>
       <c r="E191" t="n">
+        <v>1.068860210288872e-06</v>
+      </c>
+      <c r="F191" t="n">
         <v>-0.0002738285412548804</v>
       </c>
-      <c r="F191" t="n">
+      <c r="G191" t="n">
         <v>0.7013234096397284</v>
       </c>
     </row>
@@ -5422,12 +5997,15 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>-0.1682432734671495</v>
+        <v>-0.1682432734671538</v>
       </c>
       <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
         <v>-0.002122887521998607</v>
       </c>
-      <c r="F192" t="n">
+      <c r="G192" t="n">
         <v>0.8412376697271295</v>
       </c>
     </row>
@@ -5448,12 +6026,15 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>-0.06362826891911734</v>
+        <v>-0.06362826891912091</v>
       </c>
       <c r="E193" t="n">
+        <v>5.77384526490809e-49</v>
+      </c>
+      <c r="F193" t="n">
         <v>-0.001027154172555047</v>
       </c>
-      <c r="F193" t="n">
+      <c r="G193" t="n">
         <v>0.7197432010384406</v>
       </c>
     </row>
@@ -5474,12 +6055,15 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.09878974067090711</v>
+        <v>0.09878974067090202</v>
       </c>
       <c r="E194" t="n">
+        <v>6.849761223522966e-112</v>
+      </c>
+      <c r="F194" t="n">
         <v>0.0002401734664225875</v>
       </c>
-      <c r="F194" t="n">
+      <c r="G194" t="n">
         <v>0.01867325161365933</v>
       </c>
     </row>
@@ -5500,12 +6084,15 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0.1082071915291599</v>
+        <v>0.1082071915291527</v>
       </c>
       <c r="E195" t="n">
+        <v>5.648121062442487e-134</v>
+      </c>
+      <c r="F195" t="n">
         <v>0.0002173693957339794</v>
       </c>
-      <c r="F195" t="n">
+      <c r="G195" t="n">
         <v>0.01474750644494644</v>
       </c>
     </row>
@@ -5526,12 +6113,15 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0.04290777537941327</v>
+        <v>0.04290777537941003</v>
       </c>
       <c r="E196" t="n">
+        <v>1.967292248339781e-22</v>
+      </c>
+      <c r="F196" t="n">
         <v>2.402351189182725e-05</v>
       </c>
-      <c r="F196" t="n">
+      <c r="G196" t="n">
         <v>0.006112482627393025</v>
       </c>
     </row>
@@ -5552,12 +6142,15 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>0.007450915395333722</v>
+        <v>0.007450915395333896</v>
       </c>
       <c r="E197" t="n">
+        <v>0.1653866362099458</v>
+      </c>
+      <c r="F197" t="n">
         <v>0.0006965066123383863</v>
       </c>
-      <c r="F197" t="n">
+      <c r="G197" t="n">
         <v>5.857010947784332</v>
       </c>
     </row>
@@ -5578,12 +6171,15 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0.07188462459411023</v>
+        <v>0.0718846245941131</v>
       </c>
       <c r="E198" t="n">
+        <v>4.80239763536543e-43</v>
+      </c>
+      <c r="F198" t="n">
         <v>0.1238640473810287</v>
       </c>
-      <c r="F198" t="n">
+      <c r="G198" t="n">
         <v>46.51845337113024</v>
       </c>
     </row>
@@ -5604,12 +6200,15 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>-0.07138080385621777</v>
+        <v>-0.07138080385622417</v>
       </c>
       <c r="E199" t="n">
+        <v>3.230949348367457e-43</v>
+      </c>
+      <c r="F199" t="n">
         <v>-0.2660705140274168</v>
       </c>
-      <c r="F199" t="n">
+      <c r="G199" t="n">
         <v>207.8665460348768</v>
       </c>
     </row>
@@ -5630,12 +6229,15 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>0.01823127727716998</v>
+        <v>0.01823127727717197</v>
       </c>
       <c r="E200" t="n">
+        <v>0.0004141015622676811</v>
+      </c>
+      <c r="F200" t="n">
         <v>0.006910276924186692</v>
       </c>
-      <c r="F200" t="n">
+      <c r="G200" t="n">
         <v>2.885990631399004</v>
       </c>
     </row>
@@ -5656,12 +6258,15 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0.2537298619536942</v>
+        <v>0.2537298619536872</v>
       </c>
       <c r="E201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" t="n">
         <v>0.01146144421342207</v>
       </c>
-      <c r="F201" t="n">
+      <c r="G201" t="n">
         <v>0.3316643164012741</v>
       </c>
     </row>
